--- a/biology/Zoologie/Hippasteria/Hippasteria.xlsx
+++ b/biology/Zoologie/Hippasteria/Hippasteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippasteria est un genre d'étoiles de mer qui appartient à la famille des Goniasteridae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont pour la plupart des étoiles d'eau profonde, dont beaucoup sont des prédateurs de coraux abyssaux[2],[3].
-L'espèce Hippasteria phrygiana (auparavant connue également sous le nom de Hippasteria spinosa) est la plus répandue, présente dans les trois principaux bassins océaniques[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont pour la plupart des étoiles d'eau profonde, dont beaucoup sont des prédateurs de coraux abyssaux,.
+L'espèce Hippasteria phrygiana (auparavant connue également sous le nom de Hippasteria spinosa) est la plus répandue, présente dans les trois principaux bassins océaniques.
 			Hippasteria phrygania
 			Idem, face orale.
 			Idem, de profil.
@@ -547,9 +561,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (11 juin 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (11 juin 2014) :
 Hippasteria californica Fisher, 1905
 Hippasteria falklandica Fisher, 1940
 Hippasteria heathi Fisher, 1905
